--- a/LAB3/Report5_Unit Test.xlsx
+++ b/LAB3/Report5_Unit Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranquocdat/Downloads/DemoCalculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranquocdat/Downloads/SWT301/LAB3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6259A268-B03D-714F-BC3B-FA2477C422ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EA1E6-F9CB-574D-B597-92ED0CF3ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Function 1'!$A$1:$T$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Function 1'!$A$1:$T$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Function 2'!$A$1:$T$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Function3!$A$1:$T$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Functions!$A$1:$H$39</definedName>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="216">
   <si>
     <t>Project Name</t>
   </si>
@@ -1035,19 +1035,55 @@
     <t>email is invalid</t>
   </si>
   <si>
-    <t>caramel.coom</t>
-  </si>
-  <si>
     <t>email is null</t>
   </si>
   <si>
-    <t>dattran@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>dattran</t>
-  </si>
-  <si>
     <t>dattqde181019</t>
+  </si>
+  <si>
+    <t>bop123</t>
+  </si>
+  <si>
+    <t>"   "</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>alice123</t>
+  </si>
+  <si>
+    <t>bop@home</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>"pass word"</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>bopmail.com</t>
+  </si>
+  <si>
+    <t>test@mail.com</t>
+  </si>
+  <si>
+    <t>invalidEmail</t>
+  </si>
+  <si>
+    <t>user2@mail..com</t>
+  </si>
+  <si>
+    <t>bop@home.com</t>
+  </si>
+  <si>
+    <t>username duplicated</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2953,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="431">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3786,15 +3822,27 @@
     <xf numFmtId="1" fontId="30" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="38" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3804,18 +3852,6 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="43" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4097,6 +4133,21 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="36" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="49" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7111,17 +7162,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="57"/>
@@ -7138,72 +7189,72 @@
       <c r="A4" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="328" t="str">
+      <c r="B4" s="330" t="str">
         <f>Cover!B4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="C4" s="328"/>
-      <c r="D4" s="329" t="s">
+      <c r="C4" s="330"/>
+      <c r="D4" s="331" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331"/>
-      <c r="H4" s="331"/>
-      <c r="I4" s="332"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="336"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="328" t="str">
+      <c r="B5" s="330" t="str">
         <f>Cover!B5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="C5" s="328"/>
-      <c r="D5" s="329" t="s">
+      <c r="C5" s="330"/>
+      <c r="D5" s="331" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="329"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="332"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="336"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="328" t="str">
+      <c r="B6" s="330" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="328"/>
-      <c r="D6" s="329" t="s">
+      <c r="C6" s="330"/>
+      <c r="D6" s="331" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="329"/>
-      <c r="F6" s="333" t="s">
+      <c r="E6" s="331"/>
+      <c r="F6" s="327" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="335"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="329"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="336" t="s">
+      <c r="B7" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="336"/>
-      <c r="G7" s="336"/>
-      <c r="H7" s="336"/>
-      <c r="I7" s="336"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="332"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="60"/>
@@ -7523,11 +7574,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
+      <pane ySplit="9" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -7704,12 +7755,12 @@
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="366">
-        <f>COUNTIF(F55:HQ55,"P")</f>
+        <f>COUNTIF(F65:HQ65,"P")</f>
         <v>15</v>
       </c>
       <c r="B7" s="365"/>
       <c r="C7" s="362">
-        <f>COUNTIF(F55:HQ55,"F")</f>
+        <f>COUNTIF(F65:HQ65,"F")</f>
         <v>0</v>
       </c>
       <c r="D7" s="363"/>
@@ -7724,15 +7775,15 @@
       <c r="J7" s="363"/>
       <c r="K7" s="364"/>
       <c r="L7" s="183">
-        <f>COUNTIF(E54:HQ54,"N")</f>
+        <f>COUNTIF(E64:HQ64,"N")</f>
         <v>5</v>
       </c>
       <c r="M7" s="183">
-        <f>COUNTIF(E54:HQ54,"A")</f>
+        <f>COUNTIF(E64:HQ64,"A")</f>
         <v>8</v>
       </c>
       <c r="N7" s="183">
-        <f>COUNTIF(E54:HQ54,"B")</f>
+        <f>COUNTIF(E64:HQ64,"B")</f>
         <v>2</v>
       </c>
       <c r="O7" s="183">
@@ -7934,23 +7985,25 @@
       <c r="G15" s="175"/>
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
-      <c r="J15" s="175" t="s">
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175" t="s">
+      <c r="M15" s="175" t="s">
         <v>146</v>
       </c>
+      <c r="N15" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="175"/>
       <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
+      <c r="Q15" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="R15" s="175"/>
       <c r="S15" s="175"/>
-      <c r="T15" s="207" t="s">
-        <v>146</v>
-      </c>
+      <c r="T15" s="207"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="208"/>
@@ -7961,12 +8014,12 @@
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="175"/>
-      <c r="G16" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="G16" s="175"/>
       <c r="H16" s="175"/>
       <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
+      <c r="J16" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="K16" s="175"/>
       <c r="L16" s="175"/>
       <c r="M16" s="175"/>
@@ -7975,9 +8028,7 @@
       <c r="P16" s="175"/>
       <c r="Q16" s="175"/>
       <c r="R16" s="175"/>
-      <c r="S16" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="S16" s="175"/>
       <c r="T16" s="207"/>
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1">
@@ -7996,19 +8047,13 @@
       <c r="I17" s="175"/>
       <c r="J17" s="175"/>
       <c r="K17" s="175"/>
-      <c r="L17" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="L17" s="175"/>
       <c r="M17" s="175"/>
-      <c r="N17" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="N17" s="175"/>
       <c r="O17" s="175"/>
       <c r="P17" s="175"/>
       <c r="Q17" s="175"/>
-      <c r="R17" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="R17" s="175"/>
       <c r="S17" s="175"/>
       <c r="T17" s="207"/>
     </row>
@@ -8023,21 +8068,15 @@
       <c r="F18" s="175"/>
       <c r="G18" s="175"/>
       <c r="H18" s="175"/>
-      <c r="I18" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="I18" s="175"/>
       <c r="J18" s="175"/>
-      <c r="K18" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="K18" s="175"/>
       <c r="L18" s="175"/>
       <c r="M18" s="175"/>
       <c r="N18" s="175"/>
       <c r="O18" s="175"/>
       <c r="P18" s="175"/>
-      <c r="Q18" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q18" s="175"/>
       <c r="R18" s="175"/>
       <c r="S18" s="175"/>
       <c r="T18" s="207"/>
@@ -8045,22 +8084,20 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1">
       <c r="A19" s="208"/>
-      <c r="B19" s="303"/>
+      <c r="B19" s="431"/>
       <c r="C19" s="85"/>
-      <c r="D19" s="304" t="s">
-        <v>63</v>
-      </c>
+      <c r="D19" s="304"/>
       <c r="E19" s="91"/>
       <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
+      <c r="G19" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="H19" s="175"/>
       <c r="I19" s="175"/>
       <c r="J19" s="175"/>
       <c r="K19" s="175"/>
       <c r="L19" s="175"/>
-      <c r="M19" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="M19" s="175"/>
       <c r="N19" s="175"/>
       <c r="O19" s="175"/>
       <c r="P19" s="175"/>
@@ -8083,14 +8120,14 @@
       <c r="H20" s="175"/>
       <c r="I20" s="175"/>
       <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
+      <c r="K20" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="L20" s="175"/>
       <c r="M20" s="175"/>
       <c r="N20" s="175"/>
       <c r="O20" s="175"/>
-      <c r="P20" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="P20" s="175"/>
       <c r="Q20" s="175"/>
       <c r="R20" s="175"/>
       <c r="S20" s="175"/>
@@ -8099,16 +8136,18 @@
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1">
       <c r="A21" s="208"/>
-      <c r="B21" s="286" t="s">
-        <v>182</v>
-      </c>
+      <c r="B21" s="303"/>
       <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
+      <c r="D21" s="304" t="s">
+        <v>201</v>
+      </c>
       <c r="E21" s="91"/>
       <c r="F21" s="175"/>
       <c r="G21" s="175"/>
       <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
+      <c r="I21" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="J21" s="175"/>
       <c r="K21" s="175"/>
       <c r="L21" s="175"/>
@@ -8124,46 +8163,43 @@
     </row>
     <row r="22" spans="1:21" ht="13.5" customHeight="1">
       <c r="A22" s="208"/>
-      <c r="B22" s="84"/>
+      <c r="B22" s="303"/>
       <c r="C22" s="85"/>
-      <c r="D22" s="353" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="354"/>
-      <c r="F22" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="D22" s="304" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="175"/>
       <c r="G22" s="175"/>
       <c r="H22" s="175"/>
       <c r="I22" s="175"/>
       <c r="J22" s="175"/>
       <c r="K22" s="175"/>
       <c r="L22" s="175"/>
-      <c r="M22" s="175" t="s">
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
+      <c r="P22" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="Q22" s="175"/>
       <c r="R22" s="175"/>
-      <c r="S22" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="S22" s="175"/>
       <c r="T22" s="207"/>
+      <c r="U22" s="176"/>
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1">
       <c r="A23" s="208"/>
-      <c r="B23" s="84"/>
+      <c r="B23" s="303"/>
       <c r="C23" s="85"/>
-      <c r="D23" s="86" t="s">
-        <v>187</v>
+      <c r="D23" s="304" t="s">
+        <v>204</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="175"/>
-      <c r="G23" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="G23" s="175"/>
       <c r="H23" s="175"/>
       <c r="I23" s="175"/>
       <c r="J23" s="175"/>
@@ -8171,28 +8207,27 @@
       <c r="L23" s="175"/>
       <c r="M23" s="175"/>
       <c r="N23" s="175"/>
-      <c r="O23" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="O23" s="175"/>
       <c r="P23" s="175"/>
       <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
+      <c r="R23" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="S23" s="175"/>
       <c r="T23" s="207"/>
+      <c r="U23" s="176"/>
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1">
       <c r="A24" s="208"/>
-      <c r="B24" s="84"/>
+      <c r="B24" s="303"/>
       <c r="C24" s="85"/>
-      <c r="D24" s="86" t="s">
-        <v>191</v>
+      <c r="D24" s="304" t="s">
+        <v>205</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="175"/>
       <c r="G24" s="175"/>
-      <c r="H24" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="H24" s="175"/>
       <c r="I24" s="175"/>
       <c r="J24" s="175"/>
       <c r="K24" s="175"/>
@@ -8203,58 +8238,52 @@
       <c r="P24" s="175"/>
       <c r="Q24" s="175"/>
       <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="207" t="s">
+      <c r="S24" s="175" t="s">
         <v>146</v>
       </c>
+      <c r="T24" s="207"/>
+      <c r="U24" s="176"/>
     </row>
     <row r="25" spans="1:21" ht="13.5" customHeight="1">
       <c r="A25" s="208"/>
-      <c r="B25" s="84"/>
+      <c r="B25" s="303"/>
       <c r="C25" s="85"/>
-      <c r="D25" s="86" t="s">
-        <v>182</v>
+      <c r="D25" s="304" t="s">
+        <v>206</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="175"/>
       <c r="G25" s="175"/>
       <c r="H25" s="175"/>
-      <c r="I25" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="I25" s="175"/>
       <c r="J25" s="175"/>
       <c r="K25" s="175"/>
-      <c r="L25" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="L25" s="175"/>
       <c r="M25" s="175"/>
-      <c r="N25" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="N25" s="175"/>
       <c r="O25" s="175"/>
       <c r="P25" s="175"/>
-      <c r="Q25" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q25" s="175"/>
       <c r="R25" s="175"/>
       <c r="S25" s="175"/>
-      <c r="T25" s="207"/>
+      <c r="T25" s="207" t="s">
+        <v>146</v>
+      </c>
+      <c r="U25" s="176"/>
     </row>
     <row r="26" spans="1:21" ht="13.5" customHeight="1">
       <c r="A26" s="208"/>
-      <c r="B26" s="303"/>
+      <c r="B26" s="286" t="s">
+        <v>182</v>
+      </c>
       <c r="C26" s="85"/>
-      <c r="D26" s="86" t="s">
-        <v>64</v>
-      </c>
+      <c r="D26" s="86"/>
       <c r="E26" s="91"/>
       <c r="F26" s="175"/>
       <c r="G26" s="175"/>
       <c r="H26" s="175"/>
       <c r="I26" s="175"/>
-      <c r="J26" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="J26" s="175"/>
       <c r="K26" s="175"/>
       <c r="L26" s="175"/>
       <c r="M26" s="175"/>
@@ -8262,25 +8291,30 @@
       <c r="O26" s="175"/>
       <c r="P26" s="175"/>
       <c r="Q26" s="175"/>
-      <c r="R26" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="R26" s="175"/>
       <c r="S26" s="175"/>
       <c r="T26" s="207"/>
+      <c r="U26" s="176"/>
     </row>
     <row r="27" spans="1:21" ht="13.5" customHeight="1">
       <c r="A27" s="208"/>
-      <c r="B27" s="303"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="85"/>
-      <c r="D27" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
+      <c r="D27" s="353" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="354"/>
+      <c r="F27" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="H27" s="175"/>
       <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
+      <c r="J27" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="K27" s="175" t="s">
         <v>146</v>
       </c>
@@ -8289,22 +8323,26 @@
       <c r="N27" s="175"/>
       <c r="O27" s="175"/>
       <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
+      <c r="Q27" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="R27" s="175"/>
       <c r="S27" s="175"/>
       <c r="T27" s="207"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1">
       <c r="A28" s="208"/>
-      <c r="B28" s="303"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="85"/>
       <c r="D28" s="86" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="175"/>
       <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
+      <c r="H28" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="I28" s="175"/>
       <c r="J28" s="175"/>
       <c r="K28" s="175"/>
@@ -8312,9 +8350,7 @@
       <c r="M28" s="175"/>
       <c r="N28" s="175"/>
       <c r="O28" s="175"/>
-      <c r="P28" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="P28" s="175"/>
       <c r="Q28" s="175"/>
       <c r="R28" s="175"/>
       <c r="S28" s="175"/>
@@ -8322,33 +8358,29 @@
     </row>
     <row r="29" spans="1:21" ht="13.5" customHeight="1">
       <c r="A29" s="208"/>
-      <c r="B29" s="286" t="s">
-        <v>183</v>
-      </c>
+      <c r="B29" s="84"/>
       <c r="C29" s="85"/>
-      <c r="D29" s="287" t="s">
-        <v>188</v>
+      <c r="D29" s="86" t="s">
+        <v>182</v>
       </c>
       <c r="E29" s="91"/>
-      <c r="F29" s="175" t="s">
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="J29" s="175"/>
       <c r="K29" s="175"/>
       <c r="L29" s="175"/>
-      <c r="M29" s="175" t="s">
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
+      <c r="P29" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="Q29" s="175"/>
       <c r="R29" s="175"/>
       <c r="S29" s="175"/>
@@ -8356,23 +8388,21 @@
     </row>
     <row r="30" spans="1:21" ht="13.5" customHeight="1">
       <c r="A30" s="208"/>
-      <c r="B30" s="84"/>
+      <c r="B30" s="303"/>
       <c r="C30" s="85"/>
-      <c r="D30" s="288" t="s">
-        <v>189</v>
+      <c r="D30" s="86" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="175"/>
       <c r="G30" s="175"/>
-      <c r="H30" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="H30" s="175"/>
       <c r="I30" s="175"/>
       <c r="J30" s="175"/>
-      <c r="K30" s="175" t="s">
+      <c r="K30" s="175"/>
+      <c r="L30" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="175"/>
       <c r="M30" s="175"/>
       <c r="N30" s="175"/>
       <c r="O30" s="175"/>
@@ -8384,29 +8414,25 @@
     </row>
     <row r="31" spans="1:21" ht="13.5" customHeight="1">
       <c r="A31" s="208"/>
-      <c r="B31" s="84"/>
+      <c r="B31" s="303"/>
       <c r="C31" s="85"/>
-      <c r="D31" s="287" t="s">
-        <v>190</v>
+      <c r="D31" s="86" t="s">
+        <v>202</v>
       </c>
       <c r="E31" s="91"/>
       <c r="F31" s="175"/>
-      <c r="G31" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="G31" s="175"/>
       <c r="H31" s="175"/>
-      <c r="I31" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="I31" s="175"/>
       <c r="J31" s="175"/>
       <c r="K31" s="175"/>
       <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
+      <c r="M31" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="N31" s="175"/>
       <c r="O31" s="175"/>
-      <c r="P31" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="P31" s="175"/>
       <c r="Q31" s="175"/>
       <c r="R31" s="175"/>
       <c r="S31" s="175"/>
@@ -8414,10 +8440,10 @@
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="208"/>
-      <c r="B32" s="84"/>
+      <c r="B32" s="303"/>
       <c r="C32" s="85"/>
-      <c r="D32" s="86" t="s">
-        <v>63</v>
+      <c r="D32" s="86">
+        <v>12345</v>
       </c>
       <c r="E32" s="91"/>
       <c r="F32" s="175"/>
@@ -8426,26 +8452,24 @@
       <c r="I32" s="175"/>
       <c r="J32" s="175"/>
       <c r="K32" s="175"/>
-      <c r="L32" s="175" t="s">
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
       <c r="O32" s="175"/>
       <c r="P32" s="175"/>
       <c r="Q32" s="175"/>
-      <c r="R32" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="R32" s="175"/>
       <c r="S32" s="175"/>
       <c r="T32" s="207"/>
     </row>
     <row r="33" spans="1:20" ht="13.5" customHeight="1">
       <c r="A33" s="208"/>
-      <c r="B33" s="84"/>
+      <c r="B33" s="303"/>
       <c r="C33" s="85"/>
       <c r="D33" s="86" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E33" s="91"/>
       <c r="F33" s="175"/>
@@ -8456,22 +8480,22 @@
       <c r="K33" s="175"/>
       <c r="L33" s="175"/>
       <c r="M33" s="175"/>
-      <c r="N33" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="N33" s="175"/>
       <c r="O33" s="175"/>
       <c r="P33" s="175"/>
       <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
+      <c r="R33" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="S33" s="175"/>
       <c r="T33" s="207"/>
     </row>
     <row r="34" spans="1:20" ht="13.5" customHeight="1">
       <c r="A34" s="208"/>
-      <c r="B34" s="84"/>
+      <c r="B34" s="303"/>
       <c r="C34" s="85"/>
       <c r="D34" s="86" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="E34" s="91"/>
       <c r="F34" s="175"/>
@@ -8483,9 +8507,7 @@
       <c r="L34" s="175"/>
       <c r="M34" s="175"/>
       <c r="N34" s="175"/>
-      <c r="O34" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="O34" s="175"/>
       <c r="P34" s="175"/>
       <c r="Q34" s="175"/>
       <c r="R34" s="175"/>
@@ -8496,10 +8518,10 @@
     </row>
     <row r="35" spans="1:20" ht="13.5" customHeight="1">
       <c r="A35" s="208"/>
-      <c r="B35" s="84"/>
+      <c r="B35" s="303"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="287" t="s">
-        <v>201</v>
+      <c r="D35" s="86" t="s">
+        <v>208</v>
       </c>
       <c r="E35" s="91"/>
       <c r="F35" s="175"/>
@@ -8513,20 +8535,20 @@
       <c r="N35" s="175"/>
       <c r="O35" s="175"/>
       <c r="P35" s="175"/>
-      <c r="Q35" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q35" s="175"/>
       <c r="R35" s="175"/>
       <c r="S35" s="175"/>
       <c r="T35" s="207" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
       <c r="A36" s="208"/>
-      <c r="B36" s="84"/>
+      <c r="B36" s="303"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="95"/>
+      <c r="D36" s="86" t="s">
+        <v>200</v>
+      </c>
       <c r="E36" s="91"/>
       <c r="F36" s="175"/>
       <c r="G36" s="175"/>
@@ -8544,116 +8566,104 @@
       <c r="S36" s="175"/>
       <c r="T36" s="207"/>
     </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:20" ht="13.5" customHeight="1">
       <c r="A37" s="208"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="177"/>
-      <c r="M37" s="177"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
-      <c r="S37" s="177"/>
-      <c r="T37" s="209"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A38" s="221" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="178" t="s">
+      <c r="B37" s="286" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="287" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="91"/>
+      <c r="F37" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178" t="s">
+      <c r="G37" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178" t="s">
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="P38" s="178" t="s">
+      <c r="M37" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="Q38" s="178" t="s">
+      <c r="N37" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="R38" s="178"/>
-      <c r="S38" s="178"/>
-      <c r="T38" s="210"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
+      <c r="Q37" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="R37" s="175"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="207"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A38" s="208"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="288" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="S38" s="175"/>
+      <c r="T38" s="207"/>
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="220"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="106"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="287" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="91"/>
       <c r="F39" s="175"/>
-      <c r="G39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
       <c r="I39" s="175"/>
-      <c r="J39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="L39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="M39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="N39" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
       <c r="O39" s="175"/>
       <c r="P39" s="175"/>
       <c r="Q39" s="175"/>
-      <c r="R39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="S39" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="T39" s="207" t="s">
-        <v>146</v>
-      </c>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="207"/>
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="220"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="108"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="91"/>
       <c r="F40" s="175"/>
       <c r="G40" s="175"/>
       <c r="H40" s="175"/>
@@ -8663,7 +8673,9 @@
       <c r="L40" s="175"/>
       <c r="M40" s="175"/>
       <c r="N40" s="175"/>
-      <c r="O40" s="175"/>
+      <c r="O40" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="P40" s="175"/>
       <c r="Q40" s="175"/>
       <c r="R40" s="175"/>
@@ -8671,13 +8683,13 @@
       <c r="T40" s="207"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="220"/>
-      <c r="B41" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="108"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="91"/>
       <c r="F41" s="175"/>
       <c r="G41" s="175"/>
       <c r="H41" s="175"/>
@@ -8688,23 +8700,29 @@
       <c r="M41" s="175"/>
       <c r="N41" s="175"/>
       <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
+      <c r="P41" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="Q41" s="175"/>
       <c r="R41" s="175"/>
       <c r="S41" s="175"/>
       <c r="T41" s="207"/>
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A42" s="220"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="108"/>
+      <c r="A42" s="208"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="91"/>
       <c r="F42" s="175"/>
       <c r="G42" s="175"/>
       <c r="H42" s="175"/>
       <c r="I42" s="175"/>
-      <c r="J42" s="175"/>
+      <c r="J42" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="K42" s="175"/>
       <c r="L42" s="175"/>
       <c r="M42" s="175"/>
@@ -8717,16 +8735,19 @@
       <c r="T42" s="207"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A43" s="220"/>
-      <c r="B43" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="179"/>
-      <c r="E43" s="108"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="287" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="91"/>
       <c r="F43" s="175"/>
       <c r="G43" s="175"/>
       <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
+      <c r="I43" s="175" t="s">
+        <v>146</v>
+      </c>
       <c r="J43" s="175"/>
       <c r="K43" s="175"/>
       <c r="L43" s="175"/>
@@ -8739,50 +8760,42 @@
       <c r="S43" s="175"/>
       <c r="T43" s="207"/>
     </row>
-    <row r="44" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A44" s="220"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="108"/>
-      <c r="F44" s="175" t="s">
-        <v>146</v>
-      </c>
+    <row r="44" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A44" s="208"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="432" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="175"/>
       <c r="G44" s="175"/>
       <c r="H44" s="175"/>
-      <c r="I44" s="175" t="s">
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
       <c r="L44" s="175"/>
       <c r="M44" s="175"/>
       <c r="N44" s="175"/>
       <c r="O44" s="175"/>
-      <c r="P44" s="175" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q44" s="175" t="s">
-        <v>146</v>
-      </c>
+      <c r="P44" s="175"/>
+      <c r="Q44" s="175"/>
       <c r="R44" s="175"/>
       <c r="S44" s="175"/>
       <c r="T44" s="207"/>
     </row>
-    <row r="45" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A45" s="220"/>
-      <c r="B45" s="194"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="196" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="197"/>
+    <row r="45" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A45" s="208"/>
+      <c r="B45" s="434"/>
+      <c r="C45" s="435"/>
+      <c r="D45" s="288" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="91"/>
       <c r="F45" s="198"/>
-      <c r="G45" s="198" t="s">
-        <v>146</v>
-      </c>
+      <c r="G45" s="198"/>
       <c r="H45" s="198"/>
       <c r="I45" s="198"/>
       <c r="J45" s="198"/>
@@ -8799,410 +8812,691 @@
       </c>
       <c r="T45" s="211"/>
     </row>
-    <row r="46" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A46" s="220"/>
-      <c r="B46" s="194"/>
-      <c r="C46" s="301"/>
-      <c r="D46" s="196" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="302"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198" t="s">
+    <row r="46" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A46" s="208"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="433" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="96"/>
+      <c r="F46" s="177"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="177"/>
+      <c r="L46" s="177"/>
+      <c r="M46" s="177"/>
+      <c r="N46" s="177"/>
+      <c r="O46" s="177"/>
+      <c r="P46" s="177"/>
+      <c r="Q46" s="177"/>
+      <c r="R46" s="177"/>
+      <c r="S46" s="177"/>
+      <c r="T46" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="198"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="198"/>
-      <c r="N46" s="198"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="198"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="198"/>
-      <c r="S46" s="198"/>
-      <c r="T46" s="211" t="s">
+    </row>
+    <row r="47" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A47" s="221" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="101"/>
+      <c r="F47" s="178" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A47" s="220"/>
-      <c r="B47" s="194"/>
-      <c r="C47" s="301"/>
-      <c r="D47" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="302"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198" t="s">
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="178"/>
+      <c r="M47" s="178"/>
+      <c r="N47" s="178"/>
+      <c r="O47" s="178"/>
+      <c r="P47" s="178"/>
+      <c r="Q47" s="178"/>
+      <c r="R47" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="K47" s="198"/>
-      <c r="L47" s="198"/>
-      <c r="M47" s="198"/>
-      <c r="N47" s="198"/>
-      <c r="O47" s="198"/>
-      <c r="P47" s="198"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="198" t="s">
+      <c r="S47" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="S47" s="198"/>
-      <c r="T47" s="211"/>
+      <c r="T47" s="210"/>
     </row>
     <row r="48" spans="1:20" ht="13.5" customHeight="1">
       <c r="A48" s="220"/>
-      <c r="B48" s="194"/>
-      <c r="C48" s="301"/>
-      <c r="D48" s="196" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
-      <c r="H48" s="198"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="198" t="s">
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="106"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="L48" s="198"/>
-      <c r="M48" s="198"/>
-      <c r="N48" s="198"/>
-      <c r="O48" s="198"/>
-      <c r="P48" s="198"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="198"/>
-      <c r="S48" s="198"/>
-      <c r="T48" s="211"/>
+      <c r="H48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="L48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="N48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="O48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="P48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q48" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="R48" s="175"/>
+      <c r="S48" s="175"/>
+      <c r="T48" s="207" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1">
       <c r="A49" s="220"/>
-      <c r="B49" s="194"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="196" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="302"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="198"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="198"/>
-      <c r="K49" s="198"/>
-      <c r="L49" s="198" t="s">
-        <v>146</v>
-      </c>
-      <c r="M49" s="198"/>
-      <c r="N49" s="198"/>
-      <c r="O49" s="198"/>
-      <c r="P49" s="198"/>
-      <c r="Q49" s="198"/>
-      <c r="R49" s="198" t="s">
-        <v>146</v>
-      </c>
-      <c r="S49" s="198"/>
-      <c r="T49" s="211"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="175"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="175"/>
+      <c r="L49" s="175"/>
+      <c r="M49" s="175"/>
+      <c r="N49" s="175"/>
+      <c r="O49" s="175"/>
+      <c r="P49" s="175"/>
+      <c r="Q49" s="175"/>
+      <c r="R49" s="175"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="207"/>
     </row>
     <row r="50" spans="1:20" ht="13.5" customHeight="1">
       <c r="A50" s="220"/>
-      <c r="B50" s="194"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="196" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="302"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
-      <c r="H50" s="198"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="198"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="198" t="s">
-        <v>146</v>
-      </c>
-      <c r="N50" s="198"/>
-      <c r="O50" s="198"/>
-      <c r="P50" s="198"/>
-      <c r="Q50" s="198"/>
-      <c r="R50" s="198"/>
-      <c r="S50" s="198"/>
-      <c r="T50" s="211"/>
+      <c r="B50" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="179"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="175"/>
+      <c r="N50" s="175"/>
+      <c r="O50" s="175"/>
+      <c r="P50" s="175"/>
+      <c r="Q50" s="175"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="175"/>
+      <c r="T50" s="207"/>
     </row>
     <row r="51" spans="1:20" ht="13.5" customHeight="1">
       <c r="A51" s="220"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="196" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="302"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="198"/>
-      <c r="H51" s="198"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="198"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="198"/>
-      <c r="N51" s="198" t="s">
+      <c r="B51" s="103"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175"/>
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="175"/>
+      <c r="S51" s="175"/>
+      <c r="T51" s="207"/>
+    </row>
+    <row r="52" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A52" s="220"/>
+      <c r="B52" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="179"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="175"/>
+      <c r="O52" s="175"/>
+      <c r="P52" s="175"/>
+      <c r="Q52" s="175"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="175"/>
+      <c r="T52" s="207"/>
+    </row>
+    <row r="53" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A53" s="220"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="108"/>
+      <c r="F53" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="O51" s="198"/>
-      <c r="P51" s="198"/>
-      <c r="Q51" s="198"/>
-      <c r="R51" s="198"/>
-      <c r="S51" s="198"/>
-      <c r="T51" s="211"/>
-    </row>
-    <row r="52" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A52" s="305"/>
-      <c r="B52" s="306"/>
-      <c r="C52" s="307"/>
-      <c r="D52" s="308" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="309"/>
-      <c r="F52" s="310"/>
-      <c r="G52" s="310"/>
-      <c r="H52" s="310"/>
-      <c r="I52" s="310"/>
-      <c r="J52" s="310"/>
-      <c r="K52" s="310"/>
-      <c r="L52" s="310"/>
-      <c r="M52" s="310"/>
-      <c r="N52" s="310"/>
-      <c r="O52" s="310" t="s">
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175"/>
+      <c r="P53" s="175"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="P52" s="310"/>
-      <c r="Q52" s="310"/>
-      <c r="R52" s="310"/>
-      <c r="S52" s="310" t="s">
+      <c r="S53" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="T52" s="310"/>
-    </row>
-    <row r="53" spans="1:20" ht="13.5" customHeight="1" thickBot="1"/>
-    <row r="54" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A54" s="221" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="290" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="291"/>
-      <c r="D54" s="294"/>
-      <c r="E54" s="199"/>
-      <c r="F54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="200" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="K54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="L54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="M54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="N54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="O54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="P54" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q54" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="200" t="s">
-        <v>72</v>
-      </c>
-      <c r="S54" s="200" t="s">
-        <v>70</v>
-      </c>
-      <c r="T54" s="212" t="s">
-        <v>71</v>
-      </c>
+      <c r="T53" s="207"/>
+    </row>
+    <row r="54" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A54" s="220"/>
+      <c r="B54" s="194"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="196" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="197"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="198"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="K54" s="198"/>
+      <c r="L54" s="198"/>
+      <c r="M54" s="198"/>
+      <c r="N54" s="198"/>
+      <c r="O54" s="198"/>
+      <c r="P54" s="198"/>
+      <c r="Q54" s="198"/>
+      <c r="R54" s="198"/>
+      <c r="S54" s="198"/>
+      <c r="T54" s="211"/>
     </row>
     <row r="55" spans="1:20" ht="13.5" customHeight="1">
       <c r="A55" s="220"/>
-      <c r="B55" s="292" t="s">
+      <c r="B55" s="194"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="196" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="302"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198"/>
+      <c r="H55" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="198"/>
+      <c r="J55" s="198"/>
+      <c r="K55" s="198"/>
+      <c r="L55" s="198"/>
+      <c r="M55" s="198"/>
+      <c r="N55" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55" s="198"/>
+      <c r="P55" s="198"/>
+      <c r="Q55" s="198"/>
+      <c r="R55" s="198"/>
+      <c r="S55" s="198"/>
+      <c r="T55" s="211"/>
+    </row>
+    <row r="56" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A56" s="220"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="302"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="198"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="M56" s="198"/>
+      <c r="N56" s="198"/>
+      <c r="O56" s="198"/>
+      <c r="P56" s="198"/>
+      <c r="Q56" s="198"/>
+      <c r="R56" s="198"/>
+      <c r="S56" s="198"/>
+      <c r="T56" s="211"/>
+    </row>
+    <row r="57" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A57" s="220"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="302"/>
+      <c r="F57" s="198"/>
+      <c r="G57" s="198"/>
+      <c r="H57" s="198"/>
+      <c r="I57" s="198"/>
+      <c r="J57" s="198"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="198"/>
+      <c r="M57" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="N57" s="198"/>
+      <c r="O57" s="198"/>
+      <c r="P57" s="198"/>
+      <c r="Q57" s="198"/>
+      <c r="R57" s="198"/>
+      <c r="S57" s="198"/>
+      <c r="T57" s="211"/>
+    </row>
+    <row r="58" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A58" s="220"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="196" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="302"/>
+      <c r="F58" s="198"/>
+      <c r="G58" s="198"/>
+      <c r="H58" s="198"/>
+      <c r="I58" s="198"/>
+      <c r="J58" s="198"/>
+      <c r="K58" s="198"/>
+      <c r="L58" s="198"/>
+      <c r="M58" s="198"/>
+      <c r="N58" s="198"/>
+      <c r="O58" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="P58" s="198"/>
+      <c r="Q58" s="198"/>
+      <c r="R58" s="198"/>
+      <c r="S58" s="198"/>
+      <c r="T58" s="211"/>
+    </row>
+    <row r="59" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A59" s="220"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="196" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="302"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="198"/>
+      <c r="H59" s="198"/>
+      <c r="I59" s="198"/>
+      <c r="J59" s="198"/>
+      <c r="K59" s="198"/>
+      <c r="L59" s="198"/>
+      <c r="M59" s="198"/>
+      <c r="N59" s="198"/>
+      <c r="O59" s="198"/>
+      <c r="P59" s="198"/>
+      <c r="Q59" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="R59" s="198"/>
+      <c r="S59" s="198"/>
+      <c r="T59" s="211"/>
+    </row>
+    <row r="60" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A60" s="220"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="301"/>
+      <c r="D60" s="196" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="302"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="198"/>
+      <c r="I60" s="198"/>
+      <c r="J60" s="198"/>
+      <c r="K60" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="L60" s="198"/>
+      <c r="M60" s="198"/>
+      <c r="N60" s="198"/>
+      <c r="O60" s="198"/>
+      <c r="P60" s="198"/>
+      <c r="Q60" s="198"/>
+      <c r="R60" s="198"/>
+      <c r="S60" s="198"/>
+      <c r="T60" s="211"/>
+    </row>
+    <row r="61" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A61" s="220"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="301"/>
+      <c r="D61" s="196" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="302"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="198"/>
+      <c r="H61" s="198"/>
+      <c r="I61" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" s="198"/>
+      <c r="K61" s="198"/>
+      <c r="L61" s="198"/>
+      <c r="M61" s="198"/>
+      <c r="N61" s="198"/>
+      <c r="O61" s="198"/>
+      <c r="P61" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q61" s="198"/>
+      <c r="R61" s="198"/>
+      <c r="S61" s="198"/>
+      <c r="T61" s="211" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A62" s="305"/>
+      <c r="B62" s="306"/>
+      <c r="C62" s="307"/>
+      <c r="D62" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="309"/>
+      <c r="F62" s="310"/>
+      <c r="G62" s="310"/>
+      <c r="H62" s="310"/>
+      <c r="I62" s="310"/>
+      <c r="J62" s="310" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="310"/>
+      <c r="L62" s="310"/>
+      <c r="M62" s="310"/>
+      <c r="N62" s="310"/>
+      <c r="O62" s="310"/>
+      <c r="P62" s="310"/>
+      <c r="Q62" s="310"/>
+      <c r="R62" s="310"/>
+      <c r="S62" s="310"/>
+      <c r="T62" s="310"/>
+    </row>
+    <row r="63" spans="1:20" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="64" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A64" s="221" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="290" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="291"/>
+      <c r="D64" s="294"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="200" t="s">
+        <v>71</v>
+      </c>
+      <c r="I64" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="N64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q64" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="R64" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="S64" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="T64" s="212" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A65" s="220"/>
+      <c r="B65" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="293"/>
-      <c r="D55" s="297"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="180" t="s">
+      <c r="C65" s="293"/>
+      <c r="D65" s="297"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="180" t="s">
+      <c r="G65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="180" t="s">
+      <c r="H65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="I55" s="180" t="s">
+      <c r="I65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="180" t="s">
+      <c r="J65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="K55" s="180" t="s">
+      <c r="K65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="L55" s="180" t="s">
+      <c r="L65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="M55" s="180" t="s">
+      <c r="M65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="N55" s="180" t="s">
+      <c r="N65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="O55" s="180" t="s">
+      <c r="O65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="P55" s="180" t="s">
+      <c r="P65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="Q55" s="180" t="s">
+      <c r="Q65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="R55" s="180" t="s">
+      <c r="R65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="S55" s="180" t="s">
+      <c r="S65" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="T55" s="214" t="s">
+      <c r="T65" s="214" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A56" s="220"/>
-      <c r="B56" s="295" t="s">
+    <row r="66" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A66" s="220"/>
+      <c r="B66" s="295" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="296"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="112">
+      <c r="C66" s="296"/>
+      <c r="D66" s="300"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="112">
         <v>39139</v>
       </c>
-      <c r="G56" s="112">
+      <c r="G66" s="112">
         <v>39139</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H66" s="112">
         <v>39140</v>
       </c>
-      <c r="I56" s="112">
+      <c r="I66" s="112">
         <v>39141</v>
       </c>
-      <c r="J56" s="112">
+      <c r="J66" s="112">
         <v>39142</v>
       </c>
-      <c r="K56" s="112">
+      <c r="K66" s="112">
         <v>39143</v>
       </c>
-      <c r="L56" s="112">
+      <c r="L66" s="112">
         <v>39144</v>
       </c>
-      <c r="M56" s="112">
+      <c r="M66" s="112">
         <v>39145</v>
       </c>
-      <c r="N56" s="112">
+      <c r="N66" s="112">
         <v>39146</v>
       </c>
-      <c r="O56" s="112">
+      <c r="O66" s="112">
         <v>39147</v>
       </c>
-      <c r="P56" s="112">
+      <c r="P66" s="112">
         <v>39148</v>
       </c>
-      <c r="Q56" s="112">
+      <c r="Q66" s="112">
         <v>39149</v>
       </c>
-      <c r="R56" s="112">
+      <c r="R66" s="112">
         <v>39150</v>
       </c>
-      <c r="S56" s="112">
+      <c r="S66" s="112">
         <v>39151</v>
       </c>
-      <c r="T56" s="215">
+      <c r="T66" s="215">
         <v>39152</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="81" thickTop="1" thickBot="1">
-      <c r="A57" s="240"/>
-      <c r="B57" s="298" t="s">
+    <row r="67" spans="1:20" ht="81" thickTop="1" thickBot="1">
+      <c r="A67" s="240"/>
+      <c r="B67" s="298" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="299"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="218"/>
-      <c r="G57" s="218"/>
-      <c r="H57" s="218"/>
-      <c r="I57" s="218"/>
-      <c r="J57" s="218"/>
-      <c r="K57" s="218" t="s">
+      <c r="C67" s="299"/>
+      <c r="E67" s="217"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="218"/>
+      <c r="H67" s="218"/>
+      <c r="I67" s="218"/>
+      <c r="J67" s="218"/>
+      <c r="K67" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="L57" s="218" t="s">
+      <c r="L67" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="218" t="s">
+      <c r="M67" s="218" t="s">
         <v>80</v>
       </c>
-      <c r="N57" s="218" t="s">
+      <c r="N67" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="O57" s="218" t="s">
+      <c r="O67" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="218" t="s">
+      <c r="P67" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="Q57" s="218" t="s">
+      <c r="Q67" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="R57" s="218" t="s">
+      <c r="R67" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="S57" s="218" t="s">
+      <c r="S67" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="T57" s="219" t="s">
+      <c r="T67" s="219" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="12" thickTop="1">
-      <c r="A58" s="201"/>
+    <row r="68" spans="1:20" ht="12" thickTop="1">
+      <c r="A68" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
@@ -9226,28 +9520,30 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:T54" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F64:T64" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:T55" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:T65" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T52" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T62" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D30" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="D31" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="D35" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D38" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D39" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D43" r:id="rId4" display="dattran@fpt.edu.vn" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D44" r:id="rId5" xr:uid="{372325AD-A7CC-6146-A10B-273F74981262}"/>
+    <hyperlink ref="D45" r:id="rId6" xr:uid="{29AA300F-A7B2-E543-BB7F-D18950F222F1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;10 02ae-BM/PM/HDCV/FSOFT v2/1&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
